--- a/biology/Histoire de la zoologie et de la botanique/Henry_Auvray/Henry_Auvray.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Henry_Auvray/Henry_Auvray.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La baron Henry Auvray, né à Tours le 26 avril 1878 et mort dans cette même ville le 4 mars 1947, est un archéologue, entomologiste, dirigeant sportif et poète français.
 </t>
@@ -511,14 +523,16 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Henry Auvray naît le 26 avril 1878 à Tours. Son titre de baron lui vient de son arrière-grand-père le général Louis-Marie Auvray, baron d'Empire en 1809 et préfet de la Sarthe[1]. Également petit-fils du maire de Tours Louis René Auvray et arrière petit-fils du Dr Jean-Baptiste Nacquart, médecin de Balzac, il est le cousin germain de Maurice de Fontenay.
-Impliqué dans le monde du sport, il fonde le Cercle Montesquiou à Tours en 1913 et préside notamment la Société de golf de Tours, la ligue du Football Association ainsi que le Rugby Club, sports qu'il ne peut pratiquer lui-même pour des raisons de santé[2]
-Très tôt attiré par l'archéologie et l'histoire antiques, il devient membre de la Société archéologique de Touraine en 1913. Il en est vice-président de 1941 à sa mort en 1947[3]. En janvier 1944, il est élu membre correspondant de la Société nationale des antiquaires de France[4]. À Tours, il fouille la salle capitulaire de l'abbaye Saint-Julien, reprend les études sur l'amphithéâtre antique et l'enceinte gallo-romaine[5] ; il profite de tous les travaux d'urbanisation dans la ville pour se livrer à des observations sur les vestiges antiques mis au jour[1]. C'est également lui qui étudie l'agglomération antique de Mougon, à Crouzilles[6].
-C'est également un poète qui publie deux recueils de ses poésies et un entomologiste passionné par les Coléoptères dont il constitue une importante collection[1].
-Pendant la Seconde Guerre mondiale, il met à profit sa bonne connaissance des caves et souterrains de Tours en participant activement à l'organisation de la défense passive[1].
-Il meurt à Tours le 4 mars 1947[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Henry Auvray naît le 26 avril 1878 à Tours. Son titre de baron lui vient de son arrière-grand-père le général Louis-Marie Auvray, baron d'Empire en 1809 et préfet de la Sarthe. Également petit-fils du maire de Tours Louis René Auvray et arrière petit-fils du Dr Jean-Baptiste Nacquart, médecin de Balzac, il est le cousin germain de Maurice de Fontenay.
+Impliqué dans le monde du sport, il fonde le Cercle Montesquiou à Tours en 1913 et préside notamment la Société de golf de Tours, la ligue du Football Association ainsi que le Rugby Club, sports qu'il ne peut pratiquer lui-même pour des raisons de santé
+Très tôt attiré par l'archéologie et l'histoire antiques, il devient membre de la Société archéologique de Touraine en 1913. Il en est vice-président de 1941 à sa mort en 1947. En janvier 1944, il est élu membre correspondant de la Société nationale des antiquaires de France. À Tours, il fouille la salle capitulaire de l'abbaye Saint-Julien, reprend les études sur l'amphithéâtre antique et l'enceinte gallo-romaine ; il profite de tous les travaux d'urbanisation dans la ville pour se livrer à des observations sur les vestiges antiques mis au jour. C'est également lui qui étudie l'agglomération antique de Mougon, à Crouzilles.
+C'est également un poète qui publie deux recueils de ses poésies et un entomologiste passionné par les Coléoptères dont il constitue une importante collection.
+Pendant la Seconde Guerre mondiale, il met à profit sa bonne connaissance des caves et souterrains de Tours en participant activement à l'organisation de la défense passive.
+Il meurt à Tours le 4 mars 1947.
 </t>
         </is>
       </c>
@@ -547,7 +561,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Publications scientifiques :
 « Les établissements romains de Mougon », Bulletin de la Société archéologique de Touraine, t. XXVI,‎ 1936, p. 301-315 (lire en ligne).
@@ -584,6 +600,8 @@
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
